--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1085.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1085.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.063296751530386</v>
+        <v>1.180802702903748</v>
       </c>
       <c r="B1">
-        <v>2.179906487671544</v>
+        <v>2.419274806976318</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.893863660373709</v>
+        <v>2.32984471321106</v>
       </c>
       <c r="E1">
-        <v>1.244348724432575</v>
+        <v>1.192080497741699</v>
       </c>
     </row>
   </sheetData>
